--- a/assignment_2/DistanceMatrix.xlsx
+++ b/assignment_2/DistanceMatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anniemarshall/Desktop/Risk_Proj_2/risklog/assignment_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolás Talia\Desktop\ORwDS\Risk and Logistics\risklog\assignment_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE6B2C4-F931-D240-95C9-AC113D96B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B4220E-627F-4CCE-85DE-C72A73225370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="500" windowWidth="25480" windowHeight="16140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DistanceMatrix Squares" sheetId="1" r:id="rId1"/>
@@ -578,48 +578,48 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -901,21 +901,21 @@
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="98" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -5649,7 +5649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>22</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>23</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -8313,7 +8313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>27</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>28</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>29</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>30</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>31</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>33</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>34</v>
       </c>
@@ -11273,7 +11273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>35</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>36</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>37</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>38</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>39</v>
       </c>
@@ -12753,7 +12753,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>40</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>42</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>43</v>
       </c>
@@ -13937,7 +13937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>44</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>45</v>
       </c>
@@ -14529,7 +14529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>46</v>
       </c>
@@ -14825,7 +14825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>47</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>48</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -15713,7 +15713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>50</v>
       </c>
@@ -16009,7 +16009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>51</v>
       </c>
@@ -16305,7 +16305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>52</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>53</v>
       </c>
@@ -16897,7 +16897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>54</v>
       </c>
@@ -17193,7 +17193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>55</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>56</v>
       </c>
@@ -17785,7 +17785,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>57</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -18377,7 +18377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>59</v>
       </c>
@@ -18673,7 +18673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>60</v>
       </c>
@@ -18969,7 +18969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>61</v>
       </c>
@@ -19265,7 +19265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -19561,7 +19561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>63</v>
       </c>
@@ -19857,7 +19857,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>64</v>
       </c>
@@ -20153,7 +20153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>65</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>66</v>
       </c>
@@ -20745,7 +20745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>67</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>68</v>
       </c>
@@ -21337,7 +21337,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>69</v>
       </c>
@@ -21633,7 +21633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>70</v>
       </c>
@@ -21929,7 +21929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>72</v>
       </c>
@@ -22521,7 +22521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>73</v>
       </c>
@@ -22817,7 +22817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>74</v>
       </c>
@@ -23113,7 +23113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>75</v>
       </c>
@@ -23409,7 +23409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>76</v>
       </c>
@@ -23705,7 +23705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>77</v>
       </c>
@@ -24001,7 +24001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -24297,7 +24297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -24593,7 +24593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -24889,7 +24889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>81</v>
       </c>
@@ -25185,7 +25185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -25481,7 +25481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>83</v>
       </c>
@@ -25777,7 +25777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>84</v>
       </c>
@@ -26073,7 +26073,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>85</v>
       </c>
@@ -26369,7 +26369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>86</v>
       </c>
@@ -26665,7 +26665,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>87</v>
       </c>
@@ -26961,7 +26961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -27257,7 +27257,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>89</v>
       </c>
@@ -27553,7 +27553,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>90</v>
       </c>
@@ -27849,7 +27849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>85</v>
       </c>
@@ -28145,7 +28145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="95" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
@@ -28441,7 +28441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>87</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>88</v>
       </c>
@@ -29033,7 +29033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>89</v>
       </c>
@@ -29329,7 +29329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>90</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>0</v>
       </c>
@@ -29931,17 +29931,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
     <col min="2" max="98" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -30533,7 +30533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -30829,7 +30829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -31125,7 +31125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -31421,7 +31421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -31717,7 +31717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -32013,7 +32013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -32605,7 +32605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -33197,7 +33197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -33789,7 +33789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -34085,7 +34085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -34677,7 +34677,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -34973,7 +34973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -35269,7 +35269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -35565,7 +35565,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -35861,7 +35861,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -36157,7 +36157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -36453,7 +36453,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -36749,7 +36749,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -37045,7 +37045,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -37341,7 +37341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -37637,7 +37637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -37933,7 +37933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -38229,7 +38229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -38525,7 +38525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -38821,7 +38821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -39117,7 +39117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -39413,7 +39413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -39709,7 +39709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -40005,7 +40005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -40301,7 +40301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -40597,7 +40597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -40893,7 +40893,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -41189,7 +41189,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -41485,7 +41485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -41781,7 +41781,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -42077,7 +42077,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -42373,7 +42373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -42669,7 +42669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -42965,7 +42965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -43261,7 +43261,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -43557,7 +43557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -43853,7 +43853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -44149,7 +44149,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -44445,7 +44445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -44741,7 +44741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -45037,7 +45037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -45333,7 +45333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -45629,7 +45629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -45925,7 +45925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -46221,7 +46221,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -46517,7 +46517,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -46813,7 +46813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -47109,7 +47109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -47405,7 +47405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -47701,7 +47701,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -47997,7 +47997,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -48293,7 +48293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -48589,7 +48589,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -48885,7 +48885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -49181,7 +49181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -49477,7 +49477,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -49773,7 +49773,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -50069,7 +50069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -50365,7 +50365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -50661,7 +50661,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -50957,7 +50957,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -51253,7 +51253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -51549,7 +51549,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -51845,7 +51845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -52141,7 +52141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -52733,7 +52733,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -53029,7 +53029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="79" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -53325,7 +53325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -53621,7 +53621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -53917,7 +53917,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -54213,7 +54213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="83" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -54509,7 +54509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="84" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -54805,7 +54805,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -55101,7 +55101,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -55397,7 +55397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -55693,7 +55693,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -55989,7 +55989,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -56285,7 +56285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -56581,7 +56581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -56877,9 +56877,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="92" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B92">
         <v>69</v>
@@ -57173,9 +57173,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>86</v>
+    <row r="93" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>92</v>
       </c>
       <c r="B93">
         <v>72</v>
@@ -57469,9 +57469,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="94" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B94">
         <v>75</v>
@@ -57765,9 +57765,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="1:98" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>88</v>
+    <row r="95" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>94</v>
       </c>
       <c r="B95">
         <v>78</v>
@@ -58061,9 +58061,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="96" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>81</v>
@@ -58357,9 +58357,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B97" s="8">
         <v>84</v>
@@ -58653,7 +58653,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>0</v>
       </c>
